--- a/价格表x.xlsx
+++ b/价格表x.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="552">
   <si>
     <t>名称</t>
   </si>
@@ -799,7 +799,7 @@
     <t>XN-5632</t>
   </si>
   <si>
-    <t>3个 1已</t>
+    <t>3个 1已 交通局</t>
   </si>
   <si>
     <t>270ml</t>
@@ -898,19 +898,22 @@
     <t>456</t>
   </si>
   <si>
+    <t xml:space="preserve">1个  </t>
+  </si>
+  <si>
     <t>XN-5600</t>
   </si>
   <si>
     <t>198</t>
   </si>
   <si>
-    <t xml:space="preserve">2个  1已 李家塔 </t>
+    <t>2个  1已 李家塔  刘涛   移民办刘</t>
   </si>
   <si>
     <t>XN-5651</t>
   </si>
   <si>
-    <t>268</t>
+    <t>238</t>
   </si>
   <si>
     <t>XN-7030</t>
@@ -925,16 +928,13 @@
     <t>XN-7600</t>
   </si>
   <si>
+    <t>2个  1已 李家塔  刘涛 河家畔</t>
+  </si>
+  <si>
     <t>XN-5611</t>
   </si>
   <si>
-    <t xml:space="preserve">1个  已 李家塔 </t>
-  </si>
-  <si>
-    <t>XN-7075</t>
-  </si>
-  <si>
-    <t>248</t>
+    <t>1个  已 李家塔   刘涛</t>
   </si>
   <si>
     <t>XN-6702</t>
@@ -943,10 +943,13 @@
     <t>208</t>
   </si>
   <si>
+    <t>2个 惠主任 一个</t>
+  </si>
+  <si>
     <t>XN-5607A</t>
   </si>
   <si>
-    <t>238</t>
+    <t>1个  1贺家畔</t>
   </si>
   <si>
     <t>XN-6735</t>
@@ -955,9 +958,15 @@
     <t>298</t>
   </si>
   <si>
+    <t xml:space="preserve">3个  1贺家畔  </t>
+  </si>
+  <si>
     <t>XN-5601</t>
   </si>
   <si>
+    <t>2个  1已 李家塔  刘涛</t>
+  </si>
+  <si>
     <t>4-4</t>
   </si>
   <si>
@@ -1685,6 +1694,12 @@
   </si>
   <si>
     <t>32</t>
+  </si>
+  <si>
+    <t>3包A3 外借</t>
+  </si>
+  <si>
+    <t>1箱A4 外借</t>
   </si>
 </sst>
 </file>
@@ -1714,14 +1729,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,23 +1781,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1759,30 +1797,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1797,13 +1812,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1812,24 +1820,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1843,6 +1849,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1850,8 +1864,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1863,12 +1878,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1878,7 +1899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,13 +1929,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,31 +2007,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1950,43 +2031,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,18 +2061,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2028,37 +2073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2088,63 +2109,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2155,6 +2119,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2176,11 +2149,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2192,10 +2213,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2204,19 +2225,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2225,116 +2246,116 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2345,6 +2366,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2978,10 +3002,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F281" sqref="F281"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="11" customHeight="1" outlineLevelCol="6"/>
@@ -2992,7 +3016,7 @@
     <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.975" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4852,7 +4876,7 @@
         <v>244</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>245</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -4875,7 +4899,7 @@
       <c r="B97" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -4898,7 +4922,7 @@
       <c r="B98" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>253</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -4921,7 +4945,7 @@
       <c r="B99" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>255</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -4944,7 +4968,7 @@
       <c r="B100" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>259</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -4967,7 +4991,7 @@
       <c r="B101" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>263</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -4990,7 +5014,7 @@
       <c r="B102" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>265</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -5013,7 +5037,7 @@
       <c r="B103" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>268</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -5036,7 +5060,7 @@
       <c r="B104" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>273</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -5059,7 +5083,7 @@
       <c r="B105" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>276</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -5082,7 +5106,7 @@
       <c r="B106" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>280</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -5105,7 +5129,7 @@
       <c r="B107" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -5118,7 +5142,7 @@
         <v>247</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:7">
@@ -5126,11 +5150,11 @@
         <v>244</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2" t="s">
-        <v>284</v>
+      <c r="C108" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>40</v>
@@ -5138,8 +5162,8 @@
       <c r="F108" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>286</v>
+      <c r="G108" s="4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:7">
@@ -5147,11 +5171,11 @@
         <v>244</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="2" t="s">
-        <v>287</v>
+      <c r="C109" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>40</v>
@@ -5160,7 +5184,7 @@
         <v>247</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:7">
@@ -5168,11 +5192,11 @@
         <v>244</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="2" t="s">
-        <v>289</v>
+      <c r="C110" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>40</v>
@@ -5181,7 +5205,7 @@
         <v>247</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:7">
@@ -5189,11 +5213,11 @@
         <v>244</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="2" t="s">
-        <v>292</v>
+      <c r="C111" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>40</v>
@@ -5201,8 +5225,8 @@
       <c r="F111" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>286</v>
+      <c r="G111" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:7">
@@ -5210,11 +5234,11 @@
         <v>244</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="2" t="s">
-        <v>293</v>
+      <c r="C112" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>40</v>
@@ -5222,8 +5246,8 @@
       <c r="F112" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>294</v>
+      <c r="G112" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:7">
@@ -5231,11 +5255,11 @@
         <v>244</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="2" t="s">
-        <v>295</v>
+      <c r="C113" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>40</v>
@@ -5244,7 +5268,7 @@
         <v>247</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:7">
@@ -5252,11 +5276,11 @@
         <v>244</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="2" t="s">
-        <v>297</v>
+      <c r="C114" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>40</v>
@@ -5265,7 +5289,7 @@
         <v>247</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:7">
@@ -5273,11 +5297,11 @@
         <v>244</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="2" t="s">
-        <v>299</v>
+      <c r="C115" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>40</v>
@@ -5286,7 +5310,7 @@
         <v>247</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:7">
@@ -5294,11 +5318,11 @@
         <v>244</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="2" t="s">
-        <v>301</v>
+      <c r="C116" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>40</v>
@@ -5306,47 +5330,45 @@
       <c r="F116" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>257</v>
+      <c r="G116" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:7">
       <c r="A117" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>286</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G117" s="2"/>
     </row>
     <row r="118" customHeight="1" spans="1:7">
       <c r="A118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G118" s="2"/>
     </row>
@@ -5355,144 +5377,144 @@
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G119" s="2"/>
     </row>
     <row r="120" customHeight="1" spans="1:7">
       <c r="A120" s="2" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G120" s="2"/>
     </row>
     <row r="121" customHeight="1" spans="1:7">
       <c r="A121" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2" t="s">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G121" s="2"/>
     </row>
     <row r="122" customHeight="1" spans="1:7">
       <c r="A122" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>310</v>
+        <v>111</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G122" s="2"/>
     </row>
     <row r="123" customHeight="1" spans="1:7">
       <c r="A123" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G123" s="2"/>
     </row>
     <row r="124" customHeight="1" spans="1:7">
       <c r="A124" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>54</v>
+        <v>314</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G124" s="2"/>
     </row>
     <row r="125" customHeight="1" spans="1:7">
       <c r="A125" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
-        <v>311</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G125" s="2"/>
     </row>
     <row r="126" customHeight="1" spans="1:7">
       <c r="A126" s="2" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="D126" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G126" s="2"/>
     </row>
@@ -5502,7 +5524,7 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>139</v>
@@ -5511,7 +5533,7 @@
         <v>40</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G127" s="2"/>
     </row>
@@ -5521,16 +5543,16 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G128" s="2"/>
     </row>
@@ -5538,18 +5560,20 @@
       <c r="A129" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="C129" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G129" s="2"/>
     </row>
@@ -5558,663 +5582,659 @@
         <v>192</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G130" s="2"/>
+      <c r="G130" s="2" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="131" customHeight="1" spans="1:7">
       <c r="A131" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>318</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:7">
       <c r="A132" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B132" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>323</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="G132" s="2"/>
     </row>
     <row r="133" customHeight="1" spans="1:7">
       <c r="A133" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.5</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>326</v>
+        <v>71</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G133" s="2"/>
     </row>
     <row r="134" customHeight="1" spans="1:7">
       <c r="A134" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B134" s="2">
         <v>0.5</v>
       </c>
-      <c r="C134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="D134" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G134" s="2"/>
     </row>
     <row r="135" customHeight="1" spans="1:7">
       <c r="A135" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B135" s="2">
         <v>0.5</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G135" s="2"/>
     </row>
     <row r="136" customHeight="1" spans="1:7">
       <c r="A136" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B136" s="2">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G136" s="2"/>
     </row>
     <row r="137" customHeight="1" spans="1:7">
       <c r="A137" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B137" s="2">
-        <v>0.38</v>
+        <v>332</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G137" s="2"/>
     </row>
     <row r="138" customHeight="1" spans="1:7">
       <c r="A138" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.5</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G138" s="2"/>
     </row>
     <row r="139" customHeight="1" spans="1:7">
       <c r="A139" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B139" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>335</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G139" s="2"/>
     </row>
     <row r="140" customHeight="1" spans="1:7">
       <c r="A140" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="D140" s="2" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="G140" s="2"/>
     </row>
     <row r="141" customHeight="1" spans="1:7">
       <c r="A141" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B141" s="2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G141" s="2"/>
     </row>
     <row r="142" customHeight="1" spans="1:7">
       <c r="A142" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B142" s="2">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G142" s="2"/>
     </row>
     <row r="143" customHeight="1" spans="1:7">
       <c r="A143" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B143" s="2">
-        <v>0.38</v>
+        <v>327</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G143" s="2"/>
     </row>
     <row r="144" customHeight="1" spans="1:7">
       <c r="A144" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
+      </c>
+      <c r="C144" s="2">
+        <v>41801</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G144" s="2"/>
     </row>
     <row r="145" customHeight="1" spans="1:7">
       <c r="A145" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C145" s="2">
-        <v>41801</v>
+        <v>327</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G145" s="2"/>
     </row>
     <row r="146" customHeight="1" spans="1:7">
       <c r="A146" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B146" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>345</v>
+        <v>327</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C146" s="2">
+        <v>61108</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G146" s="2"/>
     </row>
     <row r="147" customHeight="1" spans="1:7">
       <c r="A147" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C147" s="2">
-        <v>61108</v>
+        <v>61115</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G147" s="2"/>
     </row>
     <row r="148" customHeight="1" spans="1:7">
       <c r="A148" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C148" s="2">
-        <v>61115</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
       <c r="D148" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G148" s="2"/>
     </row>
     <row r="149" customHeight="1" spans="1:7">
       <c r="A149" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B149" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.5</v>
+      </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G149" s="2"/>
     </row>
     <row r="150" customHeight="1" spans="1:7">
       <c r="A150" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B150" s="2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G150" s="2"/>
     </row>
     <row r="151" customHeight="1" spans="1:7">
       <c r="A151" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B151" s="2">
-        <v>0.7</v>
+        <v>331</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="G151" s="2"/>
     </row>
     <row r="152" customHeight="1" spans="1:7">
       <c r="A152" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>333</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>327</v>
+        <v>24</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G152" s="2"/>
     </row>
     <row r="153" customHeight="1" spans="1:7">
       <c r="A153" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B153" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G153" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="154" customHeight="1" spans="1:7">
       <c r="A154" s="2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>352</v>
+        <v>111</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>323</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="G154" s="2"/>
     </row>
     <row r="155" customHeight="1" spans="1:7">
       <c r="A155" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>111</v>
+        <v>359</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G155" s="2"/>
     </row>
     <row r="156" customHeight="1" spans="1:7">
       <c r="A156" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C156" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="D156" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G156" s="2"/>
     </row>
     <row r="157" customHeight="1" spans="1:7">
       <c r="A157" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G157" s="2"/>
     </row>
     <row r="158" customHeight="1" spans="1:7">
       <c r="A158" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>360</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
       <c r="D158" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G158" s="2"/>
     </row>
     <row r="159" customHeight="1" spans="1:7">
       <c r="A159" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="D159" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G159" s="2"/>
     </row>
     <row r="160" customHeight="1" spans="1:7">
       <c r="A160" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>363</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G160" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="161" customHeight="1" spans="1:7">
       <c r="A161" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D161" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>323</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G161" s="2"/>
     </row>
     <row r="162" customHeight="1" spans="1:7">
       <c r="A162" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="2" t="s">
-        <v>366</v>
-      </c>
+      <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>327</v>
+        <v>47</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G162" s="2"/>
     </row>
     <row r="163" customHeight="1" spans="1:7">
       <c r="A163" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6225,13 +6245,13 @@
         <v>47</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G163" s="2"/>
     </row>
     <row r="164" customHeight="1" spans="1:7">
       <c r="A164" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6242,13 +6262,13 @@
         <v>47</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G164" s="2"/>
     </row>
     <row r="165" customHeight="1" spans="1:7">
       <c r="A165" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6259,247 +6279,249 @@
         <v>47</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G165" s="2"/>
     </row>
     <row r="166" customHeight="1" spans="1:7">
       <c r="A166" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
-        <v>54</v>
+        <v>314</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G166" s="2"/>
     </row>
     <row r="167" customHeight="1" spans="1:7">
       <c r="A167" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B167" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
-        <v>311</v>
+        <v>65</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G167" s="2"/>
     </row>
     <row r="168" customHeight="1" spans="1:7">
       <c r="A168" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G168" s="2"/>
     </row>
     <row r="169" customHeight="1" spans="1:7">
       <c r="A169" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>377</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2" t="s">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G169" s="2"/>
     </row>
     <row r="170" customHeight="1" spans="1:7">
       <c r="A170" s="2" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2" t="s">
-        <v>379</v>
+        <v>219</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="G170" s="2"/>
     </row>
     <row r="171" customHeight="1" spans="1:7">
       <c r="A171" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B171" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G171" s="2"/>
     </row>
     <row r="172" customHeight="1" spans="1:7">
       <c r="A172" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>381</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G172" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="173" customHeight="1" spans="1:7">
       <c r="A173" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G173" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="G173" s="2"/>
     </row>
     <row r="174" customHeight="1" spans="1:7">
       <c r="A174" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G174" s="2"/>
     </row>
     <row r="175" customHeight="1" spans="1:7">
       <c r="A175" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G175" s="2"/>
     </row>
     <row r="176" customHeight="1" spans="1:7">
       <c r="A176" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G176" s="2"/>
     </row>
     <row r="177" customHeight="1" spans="1:7">
       <c r="A177" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B177" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G177" s="2"/>
     </row>
     <row r="178" customHeight="1" spans="1:7">
       <c r="A178" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G178" s="2"/>
     </row>
     <row r="179" customHeight="1" spans="1:7">
       <c r="A179" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
@@ -6509,358 +6531,358 @@
         <v>47</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G179" s="2"/>
     </row>
     <row r="180" customHeight="1" spans="1:7">
       <c r="A180" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G180" s="2"/>
     </row>
     <row r="181" customHeight="1" spans="1:7">
       <c r="A181" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G181" s="2"/>
     </row>
     <row r="182" customHeight="1" spans="1:7">
       <c r="A182" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>395</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G182" s="2"/>
     </row>
     <row r="183" customHeight="1" spans="1:7">
       <c r="A183" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="D183" s="2" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G183" s="2"/>
     </row>
     <row r="184" customHeight="1" spans="1:7">
       <c r="A184" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G184" s="2"/>
     </row>
     <row r="185" customHeight="1" spans="1:7">
       <c r="A185" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G185" s="2"/>
     </row>
     <row r="186" customHeight="1" spans="1:7">
       <c r="A186" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>402</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
       <c r="D186" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G186" s="2"/>
     </row>
     <row r="187" customHeight="1" spans="1:7">
       <c r="A187" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E187" s="2"/>
       <c r="F187" s="2" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="G187" s="2"/>
     </row>
     <row r="188" customHeight="1" spans="1:7">
       <c r="A188" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E188" s="2"/>
       <c r="F188" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G188" s="2"/>
     </row>
     <row r="189" customHeight="1" spans="1:7">
       <c r="A189" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B189" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>411</v>
+      </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2" t="s">
-        <v>139</v>
+        <v>83</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G189" s="2"/>
     </row>
     <row r="190" customHeight="1" spans="1:7">
       <c r="A190" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E190" s="2"/>
       <c r="F190" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G190" s="2"/>
     </row>
     <row r="191" customHeight="1" spans="1:7">
       <c r="A191" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E191" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G191" s="2"/>
     </row>
     <row r="192" customHeight="1" spans="1:7">
       <c r="A192" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>412</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2" t="s">
-        <v>413</v>
+        <v>187</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G192" s="2"/>
     </row>
     <row r="193" customHeight="1" spans="1:7">
       <c r="A193" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="D193" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>414</v>
-      </c>
+      <c r="E193" s="2"/>
       <c r="F193" s="2" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G193" s="2"/>
     </row>
     <row r="194" customHeight="1" spans="1:7">
       <c r="A194" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>417</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G194" s="2"/>
     </row>
     <row r="195" customHeight="1" spans="1:7">
       <c r="A195" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2" t="s">
-        <v>421</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C195" s="2"/>
       <c r="D195" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G195" s="2"/>
     </row>
     <row r="196" customHeight="1" spans="1:7">
       <c r="A196" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>422</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G196" s="2"/>
     </row>
     <row r="197" customHeight="1" spans="1:7">
       <c r="A197" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E197" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F197" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G197" s="2"/>
     </row>
     <row r="198" customHeight="1" spans="1:7">
       <c r="A198" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
+      <c r="C198" s="2" t="s">
+        <v>429</v>
+      </c>
       <c r="D198" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G198" s="2"/>
     </row>
     <row r="199" customHeight="1" spans="1:7">
       <c r="A199" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2" t="s">
-        <v>426</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
         <v>104</v>
       </c>
@@ -6868,347 +6890,347 @@
         <v>105</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="G199" s="2"/>
     </row>
     <row r="200" customHeight="1" spans="1:7">
       <c r="A200" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2" t="s">
-        <v>104</v>
+        <v>434</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G200" s="2"/>
     </row>
     <row r="201" customHeight="1" spans="1:7">
       <c r="A201" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G201" s="2"/>
     </row>
     <row r="202" customHeight="1" spans="1:7">
       <c r="A202" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G202" s="2"/>
     </row>
     <row r="203" customHeight="1" spans="1:7">
       <c r="A203" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>434</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2" t="s">
-        <v>435</v>
+        <v>39</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G203" s="2"/>
     </row>
     <row r="204" customHeight="1" spans="1:7">
       <c r="A204" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G204" s="2"/>
     </row>
     <row r="205" customHeight="1" spans="1:7">
       <c r="A205" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
+      <c r="C205" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="D205" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>212</v>
+        <v>330</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G205" s="2"/>
     </row>
     <row r="206" customHeight="1" spans="1:7">
       <c r="A206" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B206" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="C206" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="G206" s="2"/>
     </row>
     <row r="207" customHeight="1" spans="1:7">
       <c r="A207" s="2" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G207" s="2"/>
     </row>
     <row r="208" customHeight="1" spans="1:7">
       <c r="A208" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>445</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>46</v>
+        <v>451</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G208" s="2"/>
     </row>
     <row r="209" customHeight="1" spans="1:7">
       <c r="A209" s="2" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="2" t="s">
-        <v>447</v>
-      </c>
+      <c r="C209" s="2"/>
       <c r="D209" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>212</v>
+        <v>454</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G209" s="2"/>
     </row>
     <row r="210" customHeight="1" spans="1:7">
       <c r="A210" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B210" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>456</v>
+      </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2" t="s">
-        <v>450</v>
+        <v>46</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G210" s="2"/>
     </row>
     <row r="211" customHeight="1" spans="1:7">
       <c r="A211" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>454</v>
+        <v>47</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G211" s="2"/>
     </row>
     <row r="212" customHeight="1" spans="1:7">
       <c r="A212" s="2" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="G212" s="2"/>
     </row>
     <row r="213" customHeight="1" spans="1:7">
       <c r="A213" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G213" s="2"/>
     </row>
     <row r="214" customHeight="1" spans="1:7">
       <c r="A214" s="2" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G214" s="2"/>
     </row>
     <row r="215" customHeight="1" spans="1:7">
       <c r="A215" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="G215" s="2"/>
     </row>
     <row r="216" customHeight="1" spans="1:7">
       <c r="A216" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G216" s="2"/>
     </row>
     <row r="217" customHeight="1" spans="1:7">
       <c r="A217" s="2" t="s">
-        <v>465</v>
+        <v>244</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G217" s="2"/>
     </row>
@@ -7217,225 +7239,221 @@
         <v>244</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G218" s="2"/>
     </row>
     <row r="219" customHeight="1" spans="1:7">
       <c r="A219" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>469</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D219" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E219" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G219" s="2"/>
     </row>
     <row r="220" customHeight="1" spans="1:7">
       <c r="A220" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="2" t="s">
-        <v>472</v>
-      </c>
+      <c r="C220" s="2"/>
       <c r="D220" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G220" s="2"/>
     </row>
     <row r="221" customHeight="1" spans="1:7">
       <c r="A221" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B221" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G221" s="2"/>
     </row>
     <row r="222" customHeight="1" spans="1:7">
       <c r="A222" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>475</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G222" s="2"/>
     </row>
     <row r="223" customHeight="1" spans="1:7">
       <c r="A223" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G223" s="2"/>
     </row>
     <row r="224" customHeight="1" spans="1:7">
       <c r="A224" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B224" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2" t="s">
-        <v>43</v>
+        <v>416</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G224" s="2"/>
     </row>
     <row r="225" customHeight="1" spans="1:7">
       <c r="A225" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2" t="s">
-        <v>413</v>
+        <v>187</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G225" s="2"/>
     </row>
     <row r="226" customHeight="1" spans="1:7">
       <c r="A226" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>480</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="G226" s="2"/>
     </row>
     <row r="227" customHeight="1" spans="1:7">
-      <c r="A227" s="2" t="s">
-        <v>481</v>
-      </c>
+      <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
-      <c r="D227" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>482</v>
-      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
       <c r="G227" s="2"/>
     </row>
     <row r="228" customHeight="1" spans="1:7">
-      <c r="A228" s="2"/>
+      <c r="A228" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
+      <c r="C228" s="2" t="s">
+        <v>487</v>
+      </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
+      <c r="F228" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="G228" s="2"/>
     </row>
     <row r="229" customHeight="1" spans="1:7">
       <c r="A229" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2" t="s">
-        <v>484</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2" t="s">
-        <v>313</v>
+        <v>467</v>
       </c>
       <c r="G229" s="2"/>
     </row>
     <row r="230" customHeight="1" spans="1:7">
       <c r="A230" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
+      <c r="E230" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F230" s="2" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="G230" s="2"/>
     </row>
     <row r="231" customHeight="1" spans="1:7">
       <c r="A231" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7444,13 +7462,13 @@
         <v>47</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G231" s="2"/>
     </row>
     <row r="232" customHeight="1" spans="1:7">
       <c r="A232" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7459,13 +7477,13 @@
         <v>47</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G232" s="2"/>
     </row>
     <row r="233" customHeight="1" spans="1:7">
       <c r="A233" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7474,13 +7492,13 @@
         <v>47</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" customHeight="1" spans="1:7">
       <c r="A234" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7489,13 +7507,13 @@
         <v>47</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="G234" s="2"/>
     </row>
     <row r="235" customHeight="1" spans="1:7">
       <c r="A235" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7504,13 +7522,13 @@
         <v>47</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G235" s="2"/>
     </row>
     <row r="236" customHeight="1" spans="1:7">
       <c r="A236" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7519,13 +7537,13 @@
         <v>47</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G236" s="2"/>
     </row>
     <row r="237" customHeight="1" spans="1:7">
       <c r="A237" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7534,165 +7552,165 @@
         <v>47</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G237" s="2"/>
     </row>
     <row r="238" customHeight="1" spans="1:7">
       <c r="A238" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>492</v>
-      </c>
+      <c r="D238" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
       <c r="G238" s="2"/>
     </row>
     <row r="239" customHeight="1" spans="1:7">
       <c r="A239" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B239" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>497</v>
+      </c>
       <c r="C239" s="2"/>
-      <c r="D239" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="D239" s="2"/>
       <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
+      <c r="F239" s="2" t="s">
+        <v>498</v>
+      </c>
       <c r="G239" s="2"/>
     </row>
     <row r="240" customHeight="1" spans="1:7">
       <c r="A240" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G240" s="2"/>
     </row>
     <row r="241" customHeight="1" spans="1:7">
       <c r="A241" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G241" s="2"/>
     </row>
     <row r="242" customHeight="1" spans="1:7">
       <c r="A242" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G242" s="2"/>
     </row>
     <row r="243" customHeight="1" spans="1:7">
       <c r="A243" s="2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C243" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2" t="s">
-        <v>495</v>
+        <v>357</v>
       </c>
       <c r="G243" s="2"/>
     </row>
     <row r="244" customHeight="1" spans="1:7">
       <c r="A244" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C244" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
       <c r="G244" s="2"/>
     </row>
     <row r="245" customHeight="1" spans="1:7">
       <c r="A245" s="2" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2" t="s">
+      <c r="C245" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2" t="s">
-        <v>501</v>
+        <v>370</v>
       </c>
       <c r="G245" s="2"/>
     </row>
     <row r="246" customHeight="1" spans="1:7">
       <c r="A246" s="2" t="s">
-        <v>502</v>
+        <v>169</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2" t="s">
-        <v>85</v>
+        <v>460</v>
       </c>
       <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
+      <c r="E246" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F246" s="2" t="s">
-        <v>367</v>
+        <v>506</v>
       </c>
       <c r="G246" s="2"/>
     </row>
     <row r="247" customHeight="1" spans="1:7">
       <c r="A247" s="2" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E247" s="2"/>
       <c r="F247" s="2" t="s">
-        <v>503</v>
+        <v>234</v>
       </c>
       <c r="G247" s="2"/>
     </row>
     <row r="248" customHeight="1" spans="1:7">
       <c r="A248" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7701,13 +7719,13 @@
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G248" s="2"/>
     </row>
     <row r="249" customHeight="1" spans="1:7">
       <c r="A249" s="2" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7716,31 +7734,33 @@
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="G249" s="2"/>
     </row>
     <row r="250" customHeight="1" spans="1:7">
       <c r="A250" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B250" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2" t="s">
-        <v>162</v>
+        <v>511</v>
       </c>
       <c r="G250" s="2"/>
     </row>
     <row r="251" customHeight="1" spans="1:7">
       <c r="A251" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2" t="s">
@@ -7748,58 +7768,54 @@
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G251" s="2"/>
     </row>
     <row r="252" customHeight="1" spans="1:7">
       <c r="A252" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>509</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="B252" s="2"/>
       <c r="C252" s="2"/>
-      <c r="D252" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2" t="s">
-        <v>508</v>
+        <v>237</v>
       </c>
       <c r="G252" s="2"/>
     </row>
     <row r="253" customHeight="1" spans="1:7">
-      <c r="A253" s="2" t="s">
-        <v>510</v>
-      </c>
+      <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
-      <c r="F253" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="F253" s="2"/>
       <c r="G253" s="2"/>
     </row>
     <row r="254" customHeight="1" spans="1:7">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
+      <c r="A254" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
     </row>
     <row r="255" customHeight="1" spans="1:7">
-      <c r="A255" s="2" t="s">
-        <v>511</v>
-      </c>
+      <c r="A255" s="2"/>
       <c r="B255" s="2" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -7808,20 +7824,20 @@
     </row>
     <row r="256" customHeight="1" spans="1:7">
       <c r="A256" s="2"/>
-      <c r="B256" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
     </row>
     <row r="257" customHeight="1" spans="1:7">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
+      <c r="A257" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>460</v>
+      </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -7829,11 +7845,9 @@
       <c r="G257" s="2"/>
     </row>
     <row r="258" customHeight="1" spans="1:7">
-      <c r="A258" s="2" t="s">
-        <v>513</v>
-      </c>
+      <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -7843,9 +7857,7 @@
     </row>
     <row r="259" customHeight="1" spans="1:7">
       <c r="A259" s="2"/>
-      <c r="B259" s="2" t="s">
-        <v>512</v>
-      </c>
+      <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -7853,90 +7865,96 @@
       <c r="G259" s="2"/>
     </row>
     <row r="260" customHeight="1" spans="1:7">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
+      <c r="A260" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="261" customHeight="1" spans="1:7">
       <c r="A261" s="2" t="s">
-        <v>512</v>
+        <v>460</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>383</v>
+        <v>519</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="1:7">
       <c r="A262" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>516</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
     </row>
     <row r="263" customHeight="1" spans="1:7">
-      <c r="A263" s="2" t="s">
-        <v>459</v>
-      </c>
+      <c r="A263" s="2"/>
       <c r="B263" s="2"/>
-      <c r="C263" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>514</v>
-      </c>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
     </row>
     <row r="264" customHeight="1" spans="1:7">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
+      <c r="A264" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
     </row>
     <row r="265" customHeight="1" spans="1:7">
-      <c r="A265" s="2" t="s">
-        <v>517</v>
-      </c>
+      <c r="A265" s="2"/>
       <c r="B265" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
@@ -7945,69 +7963,63 @@
     <row r="266" customHeight="1" spans="1:7">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>133</v>
+        <v>526</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E266" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
     </row>
     <row r="267" customHeight="1" spans="1:7">
       <c r="A267" s="2"/>
-      <c r="B267" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
     </row>
     <row r="268" customHeight="1" spans="1:7">
       <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
+      <c r="B268" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
     </row>
     <row r="269" customHeight="1" spans="1:7">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
+      <c r="A269" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
     </row>
     <row r="270" customHeight="1" spans="1:7">
-      <c r="A270" s="2" t="s">
-        <v>526</v>
-      </c>
+      <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
-      <c r="D270" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>414</v>
-      </c>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
     </row>
@@ -8021,27 +8033,27 @@
       <c r="G271" s="2"/>
     </row>
     <row r="272" customHeight="1" spans="1:7">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
+      <c r="A272" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
     </row>
     <row r="273" customHeight="1" spans="1:7">
-      <c r="A273" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
@@ -8065,24 +8077,28 @@
       <c r="G275" s="2"/>
     </row>
     <row r="276" customHeight="1" spans="1:7">
-      <c r="A276" s="2"/>
+      <c r="A276" s="2" t="s">
+        <v>533</v>
+      </c>
       <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
+      <c r="C276" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
     </row>
     <row r="277" customHeight="1" spans="1:7">
-      <c r="A277" s="2" t="s">
-        <v>530</v>
-      </c>
+      <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>168</v>
+        <v>536</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
@@ -8092,10 +8108,10 @@
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
@@ -8105,10 +8121,10 @@
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
@@ -8118,10 +8134,10 @@
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
@@ -8130,101 +8146,99 @@
     <row r="281" customHeight="1" spans="1:7">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
-      <c r="C281" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>539</v>
-      </c>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
       <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
+      <c r="F281" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="282" customHeight="1" spans="1:7">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
+      <c r="A282" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>547</v>
+      </c>
       <c r="F282" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>541</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G282" s="2"/>
     </row>
     <row r="283" customHeight="1" spans="1:7">
-      <c r="A283" s="2" t="s">
-        <v>542</v>
-      </c>
+      <c r="A283" s="2"/>
       <c r="B283" s="2" t="s">
-        <v>256</v>
+        <v>547</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>543</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="D283" s="2"/>
       <c r="E283" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G283" s="2"/>
     </row>
     <row r="284" customHeight="1" spans="1:7">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>545</v>
+        <v>43</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="2" t="s">
-        <v>546</v>
+        <v>416</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G284" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="285" customHeight="1" spans="1:7">
       <c r="A285" s="2"/>
-      <c r="B285" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2" t="s">
-        <v>413</v>
+        <v>178</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G285" s="2"/>
     </row>
     <row r="286" customHeight="1" spans="1:7">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
-      <c r="E286" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
       <c r="G286" s="2"/>
     </row>
     <row r="287" customHeight="1" spans="1:7">
-      <c r="A287" s="2"/>
+      <c r="A287" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -8233,7 +8247,9 @@
       <c r="G287" s="2"/>
     </row>
     <row r="288" customHeight="1" spans="1:7">
-      <c r="A288" s="2"/>
+      <c r="A288" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -8438,15 +8454,6 @@
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
-    </row>
-    <row r="311" customHeight="1" spans="1:7">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
-      <c r="G311" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/价格表x.xlsx
+++ b/价格表x.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="558">
   <si>
     <t>名称</t>
   </si>
@@ -907,7 +907,7 @@
     <t>198</t>
   </si>
   <si>
-    <t>2个  1已 李家塔  刘涛   移民办刘</t>
+    <t>2个  1已 李家塔  刘涛   1移民办刘</t>
   </si>
   <si>
     <t>XN-5651</t>
@@ -928,13 +928,22 @@
     <t>XN-7600</t>
   </si>
   <si>
-    <t>2个  1已 李家塔  刘涛 河家畔</t>
+    <t>2个  1已 李家塔刘涛   1河家畔</t>
   </si>
   <si>
     <t>XN-5611</t>
   </si>
   <si>
-    <t>1个  已 李家塔   刘涛</t>
+    <t>1个  1已 李家塔刘涛</t>
+  </si>
+  <si>
+    <t>XN-7075</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1个  1贺家畔  </t>
   </si>
   <si>
     <t>XN-6702</t>
@@ -943,7 +952,7 @@
     <t>208</t>
   </si>
   <si>
-    <t>2个 惠主任 一个</t>
+    <t>2个  1惠世君</t>
   </si>
   <si>
     <t>XN-5607A</t>
@@ -958,13 +967,13 @@
     <t>298</t>
   </si>
   <si>
-    <t xml:space="preserve">3个  1贺家畔  </t>
+    <t xml:space="preserve">2个  </t>
   </si>
   <si>
     <t>XN-5601</t>
   </si>
   <si>
-    <t>2个  1已 李家塔  刘涛</t>
+    <t>2个  1已 李家塔刘涛</t>
   </si>
   <si>
     <t>4-4</t>
@@ -1462,12 +1471,21 @@
     <t>XN-8813</t>
   </si>
   <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>惠宝</t>
+  </si>
+  <si>
     <t>1.4L</t>
   </si>
   <si>
     <t>XN-9811</t>
   </si>
   <si>
+    <t>388</t>
+  </si>
+  <si>
     <t>学生套尺</t>
   </si>
   <si>
@@ -1696,7 +1714,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>3包A3 外借</t>
+    <t>3/2包A3 外借</t>
   </si>
   <si>
     <t>1箱A4 外借</t>
@@ -1708,8 +1726,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1729,7 +1747,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1750,64 +1813,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1827,15 +1837,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1849,14 +1876,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1864,9 +1883,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1899,25 +1917,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,7 +1953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1947,25 +1977,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,85 +2019,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2079,7 +2055,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2109,6 +2127,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2119,15 +2185,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2150,38 +2207,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2196,15 +2223,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2213,10 +2231,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2225,133 +2243,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2721,8 +2739,8 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3002,16 +3020,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="11" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.375" style="1" customWidth="1"/>
@@ -5250,12 +5268,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:7">
+    <row r="113" customFormat="1" customHeight="1" spans="1:7">
       <c r="A113" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -5280,7 +5298,7 @@
         <v>300</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>40</v>
@@ -5289,7 +5307,7 @@
         <v>247</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:7">
@@ -5298,10 +5316,10 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>40</v>
@@ -5322,7 +5340,7 @@
         <v>305</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>40</v>
@@ -5330,45 +5348,47 @@
       <c r="F116" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>306</v>
+      <c r="G116" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:7">
       <c r="A117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="D117" s="2" t="s">
-        <v>71</v>
+        <v>291</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G117" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="118" customHeight="1" spans="1:7">
       <c r="A118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G118" s="2"/>
     </row>
@@ -5377,108 +5397,110 @@
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G119" s="2"/>
     </row>
     <row r="120" customHeight="1" spans="1:7">
       <c r="A120" s="2" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="G120" s="2"/>
     </row>
     <row r="121" customHeight="1" spans="1:7">
       <c r="A121" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G121" s="2"/>
     </row>
     <row r="122" customHeight="1" spans="1:7">
       <c r="A122" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G122" s="2"/>
     </row>
     <row r="123" customHeight="1" spans="1:7">
       <c r="A123" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B123" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G123" s="2"/>
     </row>
     <row r="124" customHeight="1" spans="1:7">
       <c r="A124" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="G124" s="2"/>
     </row>
@@ -5489,32 +5511,30 @@
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>317</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G125" s="2"/>
     </row>
     <row r="126" customHeight="1" spans="1:7">
       <c r="A126" s="2" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G126" s="2"/>
     </row>
@@ -5524,7 +5544,7 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>139</v>
@@ -5533,7 +5553,7 @@
         <v>40</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G127" s="2"/>
     </row>
@@ -5543,16 +5563,16 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G128" s="2"/>
     </row>
@@ -5560,20 +5580,18 @@
       <c r="A129" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>320</v>
-      </c>
+      <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="G129" s="2"/>
     </row>
@@ -5582,38 +5600,40 @@
         <v>192</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>323</v>
-      </c>
+      <c r="G130" s="2"/>
     </row>
     <row r="131" customHeight="1" spans="1:7">
       <c r="A131" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>326</v>
@@ -5623,618 +5643,620 @@
       <c r="A132" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G132" s="2"/>
     </row>
     <row r="133" customHeight="1" spans="1:7">
       <c r="A133" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="B133" s="2">
-        <v>0.5</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>71</v>
+        <v>332</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G133" s="2"/>
     </row>
     <row r="134" customHeight="1" spans="1:7">
       <c r="A134" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B134" s="2">
         <v>0.5</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G134" s="2"/>
     </row>
     <row r="135" customHeight="1" spans="1:7">
       <c r="A135" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B135" s="2">
         <v>0.5</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G135" s="2"/>
     </row>
     <row r="136" customHeight="1" spans="1:7">
       <c r="A136" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B136" s="2">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G136" s="2"/>
     </row>
     <row r="137" customHeight="1" spans="1:7">
       <c r="A137" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.38</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G137" s="2"/>
     </row>
     <row r="138" customHeight="1" spans="1:7">
       <c r="A138" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B138" s="2">
-        <v>0.5</v>
+        <v>335</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G138" s="2"/>
     </row>
     <row r="139" customHeight="1" spans="1:7">
       <c r="A139" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="D139" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G139" s="2"/>
     </row>
     <row r="140" customHeight="1" spans="1:7">
       <c r="A140" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B140" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>341</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G140" s="2"/>
     </row>
     <row r="141" customHeight="1" spans="1:7">
       <c r="A141" s="2" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B141" s="2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G141" s="2"/>
     </row>
     <row r="142" customHeight="1" spans="1:7">
       <c r="A142" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B142" s="2">
-        <v>0.38</v>
+        <v>0.7</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G142" s="2"/>
     </row>
     <row r="143" customHeight="1" spans="1:7">
       <c r="A143" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>345</v>
+        <v>330</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.38</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G143" s="2"/>
     </row>
     <row r="144" customHeight="1" spans="1:7">
       <c r="A144" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C144" s="2">
-        <v>41801</v>
+        <v>348</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G144" s="2"/>
     </row>
     <row r="145" customHeight="1" spans="1:7">
       <c r="A145" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B145" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>348</v>
+        <v>330</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C145" s="2">
+        <v>41801</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G145" s="2"/>
     </row>
     <row r="146" customHeight="1" spans="1:7">
       <c r="A146" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C146" s="2">
-        <v>61108</v>
+        <v>330</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G146" s="2"/>
     </row>
     <row r="147" customHeight="1" spans="1:7">
       <c r="A147" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C147" s="2">
-        <v>61115</v>
+        <v>61108</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G147" s="2"/>
     </row>
     <row r="148" customHeight="1" spans="1:7">
       <c r="A148" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C148" s="2">
+        <v>61115</v>
+      </c>
       <c r="D148" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G148" s="2"/>
     </row>
     <row r="149" customHeight="1" spans="1:7">
       <c r="A149" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B149" s="2">
-        <v>0.5</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G149" s="2"/>
     </row>
     <row r="150" customHeight="1" spans="1:7">
       <c r="A150" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B150" s="2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G150" s="2"/>
     </row>
     <row r="151" customHeight="1" spans="1:7">
       <c r="A151" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.7</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G151" s="2"/>
     </row>
     <row r="152" customHeight="1" spans="1:7">
       <c r="A152" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B152" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G152" s="2"/>
     </row>
     <row r="153" customHeight="1" spans="1:7">
       <c r="A153" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>326</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G153" s="2"/>
     </row>
     <row r="154" customHeight="1" spans="1:7">
       <c r="A154" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>111</v>
+        <v>358</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G154" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="155" customHeight="1" spans="1:7">
       <c r="A155" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>359</v>
+        <v>111</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G155" s="2"/>
     </row>
     <row r="156" customHeight="1" spans="1:7">
       <c r="A156" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>361</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G156" s="2"/>
     </row>
     <row r="157" customHeight="1" spans="1:7">
       <c r="A157" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G157" s="2"/>
     </row>
     <row r="158" customHeight="1" spans="1:7">
       <c r="A158" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="D158" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G158" s="2"/>
     </row>
     <row r="159" customHeight="1" spans="1:7">
       <c r="A159" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>366</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
       <c r="D159" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G159" s="2"/>
     </row>
     <row r="160" customHeight="1" spans="1:7">
       <c r="A160" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D160" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>326</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="G160" s="2"/>
     </row>
     <row r="161" customHeight="1" spans="1:7">
       <c r="A161" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="2" t="s">
-        <v>369</v>
-      </c>
+      <c r="C161" s="2"/>
       <c r="D161" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G161" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="162" customHeight="1" spans="1:7">
       <c r="A162" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="D162" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>47</v>
+        <v>333</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G162" s="2"/>
     </row>
     <row r="163" customHeight="1" spans="1:7">
       <c r="A163" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6245,13 +6267,13 @@
         <v>47</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G163" s="2"/>
     </row>
     <row r="164" customHeight="1" spans="1:7">
       <c r="A164" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6262,13 +6284,13 @@
         <v>47</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G164" s="2"/>
     </row>
     <row r="165" customHeight="1" spans="1:7">
       <c r="A165" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6279,62 +6301,60 @@
         <v>47</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G165" s="2"/>
     </row>
     <row r="166" customHeight="1" spans="1:7">
       <c r="A166" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
-        <v>314</v>
+        <v>54</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G166" s="2"/>
     </row>
     <row r="167" customHeight="1" spans="1:7">
       <c r="A167" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B167" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
-        <v>65</v>
+        <v>317</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G167" s="2"/>
     </row>
     <row r="168" customHeight="1" spans="1:7">
       <c r="A168" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G168" s="2"/>
     </row>
@@ -6342,186 +6362,186 @@
       <c r="A169" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B169" s="2"/>
+      <c r="B169" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2" t="s">
-        <v>382</v>
+        <v>54</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G169" s="2"/>
     </row>
     <row r="170" customHeight="1" spans="1:7">
       <c r="A170" s="2" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2" t="s">
-        <v>219</v>
+        <v>385</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G170" s="2"/>
     </row>
     <row r="171" customHeight="1" spans="1:7">
       <c r="A171" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>384</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G171" s="2"/>
     </row>
     <row r="172" customHeight="1" spans="1:7">
       <c r="A172" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B172" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G172" s="2" t="s">
         <v>386</v>
       </c>
+      <c r="G172" s="2"/>
     </row>
     <row r="173" customHeight="1" spans="1:7">
       <c r="A173" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G173" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="174" customHeight="1" spans="1:7">
       <c r="A174" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G174" s="2"/>
     </row>
     <row r="175" customHeight="1" spans="1:7">
       <c r="A175" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G175" s="2"/>
     </row>
     <row r="176" customHeight="1" spans="1:7">
       <c r="A176" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G176" s="2"/>
     </row>
     <row r="177" customHeight="1" spans="1:7">
       <c r="A177" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>392</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G177" s="2"/>
     </row>
     <row r="178" customHeight="1" spans="1:7">
       <c r="A178" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G178" s="2"/>
     </row>
     <row r="179" customHeight="1" spans="1:7">
       <c r="A179" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
@@ -6531,358 +6551,358 @@
         <v>47</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G179" s="2"/>
     </row>
     <row r="180" customHeight="1" spans="1:7">
       <c r="A180" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G180" s="2"/>
     </row>
     <row r="181" customHeight="1" spans="1:7">
       <c r="A181" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G181" s="2"/>
     </row>
     <row r="182" customHeight="1" spans="1:7">
       <c r="A182" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B182" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G182" s="2"/>
     </row>
     <row r="183" customHeight="1" spans="1:7">
       <c r="A183" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C183" s="2" t="s">
         <v>402</v>
       </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
       <c r="D183" s="2" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G183" s="2"/>
     </row>
     <row r="184" customHeight="1" spans="1:7">
       <c r="A184" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G184" s="2"/>
     </row>
     <row r="185" customHeight="1" spans="1:7">
       <c r="A185" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>404</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G185" s="2"/>
     </row>
     <row r="186" customHeight="1" spans="1:7">
       <c r="A186" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="D186" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G186" s="2"/>
     </row>
     <row r="187" customHeight="1" spans="1:7">
       <c r="A187" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E187" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F187" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G187" s="2"/>
     </row>
     <row r="188" customHeight="1" spans="1:7">
       <c r="A188" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="E188" s="2"/>
       <c r="F188" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G188" s="2"/>
     </row>
     <row r="189" customHeight="1" spans="1:7">
       <c r="A189" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>411</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G189" s="2"/>
     </row>
     <row r="190" customHeight="1" spans="1:7">
       <c r="A190" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E190" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F190" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G190" s="2"/>
     </row>
     <row r="191" customHeight="1" spans="1:7">
       <c r="A191" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>417</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E191" s="2"/>
       <c r="F191" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G191" s="2"/>
     </row>
     <row r="192" customHeight="1" spans="1:7">
       <c r="A192" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2" t="s">
-        <v>187</v>
+        <v>419</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G192" s="2"/>
     </row>
     <row r="193" customHeight="1" spans="1:7">
       <c r="A193" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C193" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
       <c r="D193" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E193" s="2"/>
+      <c r="E193" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="F193" s="2" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G193" s="2"/>
     </row>
     <row r="194" customHeight="1" spans="1:7">
       <c r="A194" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
         <v>424</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G194" s="2"/>
     </row>
     <row r="195" customHeight="1" spans="1:7">
       <c r="A195" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C195" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2" t="s">
+        <v>427</v>
+      </c>
       <c r="D195" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G195" s="2"/>
     </row>
     <row r="196" customHeight="1" spans="1:7">
       <c r="A196" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B196" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G196" s="2"/>
     </row>
     <row r="197" customHeight="1" spans="1:7">
       <c r="A197" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E197" s="2"/>
       <c r="F197" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G197" s="2"/>
     </row>
     <row r="198" customHeight="1" spans="1:7">
       <c r="A198" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="2" t="s">
-        <v>429</v>
-      </c>
+      <c r="C198" s="2"/>
       <c r="D198" s="2" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G198" s="2"/>
     </row>
     <row r="199" customHeight="1" spans="1:7">
       <c r="A199" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B199" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="D199" s="2" t="s">
         <v>104</v>
       </c>
@@ -6890,127 +6910,125 @@
         <v>105</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G199" s="2"/>
     </row>
     <row r="200" customHeight="1" spans="1:7">
       <c r="A200" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2" t="s">
-        <v>434</v>
+        <v>104</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G200" s="2"/>
     </row>
     <row r="201" customHeight="1" spans="1:7">
       <c r="A201" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G201" s="2"/>
     </row>
     <row r="202" customHeight="1" spans="1:7">
       <c r="A202" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G202" s="2"/>
     </row>
     <row r="203" customHeight="1" spans="1:7">
       <c r="A203" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B203" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2" t="s">
-        <v>39</v>
+        <v>441</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G203" s="2"/>
     </row>
     <row r="204" customHeight="1" spans="1:7">
       <c r="A204" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G204" s="2"/>
     </row>
     <row r="205" customHeight="1" spans="1:7">
       <c r="A205" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B205" s="2"/>
-      <c r="C205" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="C205" s="2"/>
       <c r="D205" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G205" s="2"/>
     </row>
     <row r="206" customHeight="1" spans="1:7">
       <c r="A206" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B206" s="2" t="s">
         <v>444</v>
       </c>
+      <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
         <v>445</v>
       </c>
@@ -7018,67 +7036,71 @@
         <v>39</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G206" s="2"/>
     </row>
     <row r="207" customHeight="1" spans="1:7">
       <c r="A207" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="D207" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G207" s="2"/>
     </row>
     <row r="208" customHeight="1" spans="1:7">
       <c r="A208" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B208" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="C208" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>451</v>
+        <v>46</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G208" s="2"/>
     </row>
     <row r="209" customHeight="1" spans="1:7">
       <c r="A209" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
+      <c r="C209" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="D209" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>454</v>
+        <v>212</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G209" s="2"/>
     </row>
@@ -7086,151 +7108,149 @@
       <c r="A210" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>456</v>
-      </c>
+      <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2" t="s">
-        <v>46</v>
+        <v>456</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>457</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G210" s="2"/>
     </row>
     <row r="211" customHeight="1" spans="1:7">
       <c r="A211" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>47</v>
+        <v>460</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G211" s="2"/>
     </row>
     <row r="212" customHeight="1" spans="1:7">
       <c r="A212" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G212" s="2"/>
     </row>
     <row r="213" customHeight="1" spans="1:7">
       <c r="A213" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G213" s="2"/>
     </row>
     <row r="214" customHeight="1" spans="1:7">
       <c r="A214" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G214" s="2"/>
     </row>
     <row r="215" customHeight="1" spans="1:7">
       <c r="A215" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G215" s="2"/>
     </row>
     <row r="216" customHeight="1" spans="1:7">
       <c r="A216" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>469</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G216" s="2"/>
     </row>
     <row r="217" customHeight="1" spans="1:7">
       <c r="A217" s="2" t="s">
-        <v>244</v>
+        <v>471</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="G217" s="2"/>
     </row>
@@ -7239,221 +7259,231 @@
         <v>244</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D218" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="E218" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="G218" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="219" customHeight="1" spans="1:7">
       <c r="A219" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B219" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>477</v>
+      </c>
       <c r="C219" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>39</v>
+        <v>479</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G219" s="2"/>
     </row>
     <row r="220" customHeight="1" spans="1:7">
       <c r="A220" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
+      <c r="C220" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="D220" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G220" s="2"/>
     </row>
     <row r="221" customHeight="1" spans="1:7">
       <c r="A221" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>478</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G221" s="2"/>
     </row>
     <row r="222" customHeight="1" spans="1:7">
       <c r="A222" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B222" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>484</v>
+      </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G222" s="2"/>
     </row>
     <row r="223" customHeight="1" spans="1:7">
       <c r="A223" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G223" s="2"/>
     </row>
     <row r="224" customHeight="1" spans="1:7">
       <c r="A224" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>482</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2" t="s">
-        <v>416</v>
+        <v>43</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G224" s="2"/>
     </row>
     <row r="225" customHeight="1" spans="1:7">
       <c r="A225" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2" t="s">
-        <v>187</v>
+        <v>419</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G225" s="2"/>
     </row>
     <row r="226" customHeight="1" spans="1:7">
       <c r="A226" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B226" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="G226" s="2"/>
     </row>
     <row r="227" customHeight="1" spans="1:7">
-      <c r="A227" s="2"/>
+      <c r="A227" s="2" t="s">
+        <v>490</v>
+      </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
+      <c r="D227" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="G227" s="2"/>
     </row>
     <row r="228" customHeight="1" spans="1:7">
-      <c r="A228" s="2" t="s">
-        <v>486</v>
-      </c>
+      <c r="A228" s="2"/>
       <c r="B228" s="2"/>
-      <c r="C228" s="2" t="s">
-        <v>487</v>
-      </c>
+      <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
-      <c r="F228" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="F228" s="2"/>
       <c r="G228" s="2"/>
     </row>
     <row r="229" customHeight="1" spans="1:7">
       <c r="A229" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C229" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2" t="s">
-        <v>467</v>
+        <v>319</v>
       </c>
       <c r="G229" s="2"/>
     </row>
     <row r="230" customHeight="1" spans="1:7">
       <c r="A230" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B230" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
-      <c r="E230" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E230" s="2"/>
       <c r="F230" s="2" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="G230" s="2"/>
     </row>
     <row r="231" customHeight="1" spans="1:7">
       <c r="A231" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7462,13 +7492,13 @@
         <v>47</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G231" s="2"/>
     </row>
     <row r="232" customHeight="1" spans="1:7">
       <c r="A232" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7477,13 +7507,13 @@
         <v>47</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G232" s="2"/>
     </row>
     <row r="233" customHeight="1" spans="1:7">
       <c r="A233" s="2" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7492,13 +7522,13 @@
         <v>47</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" customHeight="1" spans="1:7">
       <c r="A234" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7507,13 +7537,13 @@
         <v>47</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G234" s="2"/>
     </row>
     <row r="235" customHeight="1" spans="1:7">
       <c r="A235" s="2" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7522,13 +7552,13 @@
         <v>47</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G235" s="2"/>
     </row>
     <row r="236" customHeight="1" spans="1:7">
       <c r="A236" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7537,13 +7567,13 @@
         <v>47</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G236" s="2"/>
     </row>
     <row r="237" customHeight="1" spans="1:7">
       <c r="A237" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7552,80 +7582,80 @@
         <v>47</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G237" s="2"/>
     </row>
     <row r="238" customHeight="1" spans="1:7">
       <c r="A238" s="2" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
-      <c r="D238" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="G238" s="2"/>
     </row>
     <row r="239" customHeight="1" spans="1:7">
       <c r="A239" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>497</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="B239" s="2"/>
       <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
+      <c r="D239" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E239" s="2"/>
-      <c r="F239" s="2" t="s">
-        <v>498</v>
-      </c>
+      <c r="F239" s="2"/>
       <c r="G239" s="2"/>
     </row>
     <row r="240" customHeight="1" spans="1:7">
       <c r="A240" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G240" s="2"/>
     </row>
     <row r="241" customHeight="1" spans="1:7">
       <c r="A241" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G241" s="2"/>
     </row>
     <row r="242" customHeight="1" spans="1:7">
       <c r="A242" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G242" s="2"/>
     </row>
@@ -7634,83 +7664,83 @@
         <v>502</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2" t="s">
-        <v>357</v>
+        <v>504</v>
       </c>
       <c r="G243" s="2"/>
     </row>
     <row r="244" customHeight="1" spans="1:7">
       <c r="A244" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2" t="s">
-        <v>504</v>
+        <v>360</v>
       </c>
       <c r="G244" s="2"/>
     </row>
     <row r="245" customHeight="1" spans="1:7">
       <c r="A245" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="2"/>
+      <c r="D245" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2" t="s">
-        <v>370</v>
+        <v>510</v>
       </c>
       <c r="G245" s="2"/>
     </row>
     <row r="246" customHeight="1" spans="1:7">
       <c r="A246" s="2" t="s">
-        <v>169</v>
+        <v>511</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2" t="s">
-        <v>460</v>
+        <v>85</v>
       </c>
       <c r="D246" s="2"/>
-      <c r="E246" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="E246" s="2"/>
       <c r="F246" s="2" t="s">
-        <v>506</v>
+        <v>373</v>
       </c>
       <c r="G246" s="2"/>
     </row>
     <row r="247" customHeight="1" spans="1:7">
       <c r="A247" s="2" t="s">
-        <v>507</v>
+        <v>169</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E247" s="2"/>
+      <c r="C247" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F247" s="2" t="s">
-        <v>234</v>
+        <v>512</v>
       </c>
       <c r="G247" s="2"/>
     </row>
     <row r="248" customHeight="1" spans="1:7">
       <c r="A248" s="2" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7719,7 +7749,7 @@
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="G248" s="2"/>
     </row>
@@ -7734,33 +7764,31 @@
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="G249" s="2"/>
     </row>
     <row r="250" customHeight="1" spans="1:7">
       <c r="A250" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>510</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2" t="s">
-        <v>511</v>
+        <v>162</v>
       </c>
       <c r="G250" s="2"/>
     </row>
     <row r="251" customHeight="1" spans="1:7">
       <c r="A251" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2" t="s">
@@ -7768,54 +7796,58 @@
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G251" s="2"/>
     </row>
     <row r="252" customHeight="1" spans="1:7">
       <c r="A252" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B252" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
+      <c r="D252" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2" t="s">
-        <v>237</v>
+        <v>517</v>
       </c>
       <c r="G252" s="2"/>
     </row>
     <row r="253" customHeight="1" spans="1:7">
-      <c r="A253" s="2"/>
+      <c r="A253" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
+      <c r="F253" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="G253" s="2"/>
     </row>
     <row r="254" customHeight="1" spans="1:7">
-      <c r="A254" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
     </row>
     <row r="255" customHeight="1" spans="1:7">
-      <c r="A255" s="2"/>
+      <c r="A255" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="B255" s="2" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -7824,20 +7856,20 @@
     </row>
     <row r="256" customHeight="1" spans="1:7">
       <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
+      <c r="B256" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
     </row>
     <row r="257" customHeight="1" spans="1:7">
-      <c r="A257" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>460</v>
-      </c>
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -7845,9 +7877,11 @@
       <c r="G257" s="2"/>
     </row>
     <row r="258" customHeight="1" spans="1:7">
-      <c r="A258" s="2"/>
+      <c r="A258" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="B258" s="2" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -7857,7 +7891,9 @@
     </row>
     <row r="259" customHeight="1" spans="1:7">
       <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
+      <c r="B259" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -7865,96 +7901,90 @@
       <c r="G259" s="2"/>
     </row>
     <row r="260" customHeight="1" spans="1:7">
-      <c r="A260" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>386</v>
-      </c>
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
     </row>
     <row r="261" customHeight="1" spans="1:7">
       <c r="A261" s="2" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>519</v>
+        <v>389</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="1:7">
       <c r="A262" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B262" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C262" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="263" customHeight="1" spans="1:7">
-      <c r="A263" s="2"/>
+      <c r="A263" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
+      <c r="C263" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
     </row>
     <row r="264" customHeight="1" spans="1:7">
-      <c r="A264" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>522</v>
-      </c>
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
     </row>
     <row r="265" customHeight="1" spans="1:7">
-      <c r="A265" s="2"/>
+      <c r="A265" s="2" t="s">
+        <v>526</v>
+      </c>
       <c r="B265" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
@@ -7963,63 +7993,69 @@
     <row r="266" customHeight="1" spans="1:7">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>526</v>
+        <v>133</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>212</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
     </row>
     <row r="267" customHeight="1" spans="1:7">
       <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
+      <c r="B267" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
     </row>
     <row r="268" customHeight="1" spans="1:7">
       <c r="A268" s="2"/>
-      <c r="B268" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>528</v>
-      </c>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
     </row>
     <row r="269" customHeight="1" spans="1:7">
-      <c r="A269" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>417</v>
-      </c>
+      <c r="A269" s="2"/>
+      <c r="B269" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
     </row>
     <row r="270" customHeight="1" spans="1:7">
-      <c r="A270" s="2"/>
+      <c r="A270" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
+      <c r="D270" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
     </row>
@@ -8033,27 +8069,27 @@
       <c r="G271" s="2"/>
     </row>
     <row r="272" customHeight="1" spans="1:7">
-      <c r="A272" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
     </row>
     <row r="273" customHeight="1" spans="1:7">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
+      <c r="A273" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
@@ -8077,28 +8113,24 @@
       <c r="G275" s="2"/>
     </row>
     <row r="276" customHeight="1" spans="1:7">
-      <c r="A276" s="2" t="s">
-        <v>533</v>
-      </c>
+      <c r="A276" s="2"/>
       <c r="B276" s="2"/>
-      <c r="C276" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
     </row>
     <row r="277" customHeight="1" spans="1:7">
-      <c r="A277" s="2"/>
+      <c r="A277" s="2" t="s">
+        <v>539</v>
+      </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>536</v>
+        <v>168</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
@@ -8108,10 +8140,10 @@
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
@@ -8121,10 +8153,10 @@
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
@@ -8134,10 +8166,10 @@
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
@@ -8146,99 +8178,101 @@
     <row r="281" customHeight="1" spans="1:7">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
+      <c r="C281" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>548</v>
+      </c>
       <c r="E281" s="2"/>
-      <c r="F281" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>544</v>
-      </c>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
     </row>
     <row r="282" customHeight="1" spans="1:7">
-      <c r="A282" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B282" s="2" t="s">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="283" customHeight="1" spans="1:7">
+      <c r="A283" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C283" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F282" s="2" t="s">
+      <c r="D283" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F283" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G282" s="2"/>
-    </row>
-    <row r="283" customHeight="1" spans="1:7">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G283" s="2"/>
     </row>
     <row r="284" customHeight="1" spans="1:7">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>43</v>
+        <v>554</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="2" t="s">
-        <v>416</v>
+        <v>555</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G284" s="2"/>
     </row>
     <row r="285" customHeight="1" spans="1:7">
       <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
+      <c r="B285" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2" t="s">
-        <v>178</v>
+        <v>419</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G285" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="286" customHeight="1" spans="1:7">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="F286" s="2"/>
+      <c r="E286" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G286" s="2"/>
     </row>
     <row r="287" customHeight="1" spans="1:7">
-      <c r="A287" s="2" t="s">
-        <v>550</v>
-      </c>
+      <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -8247,8 +8281,8 @@
       <c r="G287" s="2"/>
     </row>
     <row r="288" customHeight="1" spans="1:7">
-      <c r="A288" s="2" t="s">
-        <v>551</v>
+      <c r="A288" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8258,7 +8292,9 @@
       <c r="G288" s="2"/>
     </row>
     <row r="289" customHeight="1" spans="1:7">
-      <c r="A289" s="2"/>
+      <c r="A289" s="4" t="s">
+        <v>557</v>
+      </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -8454,6 +8490,15 @@
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
+    </row>
+    <row r="311" customHeight="1" spans="1:7">
+      <c r="A311" s="2"/>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/价格表x.xlsx
+++ b/价格表x.xlsx
@@ -1725,10 +1725,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1741,29 +1741,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1783,16 +1760,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1807,7 +1799,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1823,46 +1876,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1871,20 +1885,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1917,7 +1917,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,25 +2007,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1959,37 +2025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2007,31 +2055,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,61 +2079,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,21 +2127,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2165,15 +2150,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2189,6 +2165,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2200,15 +2209,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2231,10 +2231,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2243,133 +2243,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3022,8 +3022,8 @@
   <sheetPr/>
   <dimension ref="A1:G311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="11" customHeight="1" outlineLevelCol="6"/>
@@ -7377,7 +7377,7 @@
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>105</v>

--- a/价格表x.xlsx
+++ b/价格表x.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="556">
   <si>
     <t>名称</t>
   </si>
@@ -1713,22 +1713,16 @@
   <si>
     <t>32</t>
   </si>
-  <si>
-    <t>3/2包A3 外借</t>
-  </si>
-  <si>
-    <t>1箱A4 外借</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1747,6 +1741,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1754,7 +1763,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1762,14 +1786,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1783,8 +1799,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1798,77 +1846,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1885,6 +1865,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1917,19 +1911,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1947,31 +1983,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,25 +2049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2019,37 +2067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2061,43 +2085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,6 +2121,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2150,36 +2159,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2194,6 +2173,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2231,10 +2225,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2243,133 +2237,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3022,8 +3016,8 @@
   <sheetPr/>
   <dimension ref="A1:G311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="11" customHeight="1" outlineLevelCol="6"/>
@@ -8281,9 +8275,7 @@
       <c r="G287" s="2"/>
     </row>
     <row r="288" customHeight="1" spans="1:7">
-      <c r="A288" s="4" t="s">
-        <v>556</v>
-      </c>
+      <c r="A288" s="4"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -8292,9 +8284,7 @@
       <c r="G288" s="2"/>
     </row>
     <row r="289" customHeight="1" spans="1:7">
-      <c r="A289" s="4" t="s">
-        <v>557</v>
-      </c>
+      <c r="A289" s="4"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>

--- a/价格表x.xlsx
+++ b/价格表x.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="10800" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="560">
   <si>
     <t>名称</t>
   </si>
@@ -553,12 +553,15 @@
     <t>80</t>
   </si>
   <si>
+    <t>文件夹60页</t>
+  </si>
+  <si>
+    <t>金得利 CF60</t>
+  </si>
+  <si>
     <t>文件夹</t>
   </si>
   <si>
-    <t>金得利 CF60</t>
-  </si>
-  <si>
     <t>双夹</t>
   </si>
   <si>
@@ -856,7 +859,7 @@
     <t>78</t>
   </si>
   <si>
-    <t>1个 已 曹部长</t>
+    <t>1个 已 1曹部长</t>
   </si>
   <si>
     <t>虎牌水杯</t>
@@ -892,6 +895,9 @@
     <t>528</t>
   </si>
   <si>
+    <t>1个  0617惠宝</t>
+  </si>
+  <si>
     <t>MMW-A36C</t>
   </si>
   <si>
@@ -967,7 +973,7 @@
     <t>298</t>
   </si>
   <si>
-    <t xml:space="preserve">2个  </t>
+    <t>2个  2已 李家塔刘涛</t>
   </si>
   <si>
     <t>XN-5601</t>
@@ -1474,7 +1480,7 @@
     <t>428</t>
   </si>
   <si>
-    <t>惠宝</t>
+    <t>惠宝1</t>
   </si>
   <si>
     <t>1.4L</t>
@@ -1693,25 +1699,31 @@
     <t>380</t>
   </si>
   <si>
-    <t>余</t>
-  </si>
-  <si>
     <t>已卖</t>
   </si>
   <si>
     <t>闪迪</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>金</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>32</t>
+    <t>饮水机</t>
+  </si>
+  <si>
+    <t>兵兵</t>
   </si>
 </sst>
 </file>
@@ -1720,8 +1732,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1747,9 +1759,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,6 +1782,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1770,15 +1804,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1792,61 +1850,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1862,6 +1873,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1871,14 +1890,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1911,13 +1923,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,13 +2049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1947,73 +2067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2031,67 +2097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2120,17 +2132,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2150,11 +2156,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2168,26 +2189,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2225,10 +2237,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2237,133 +2249,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3014,10 +3026,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="F295" sqref="F295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="11" customHeight="1" outlineLevelCol="6"/>
@@ -4209,11 +4221,9 @@
       <c r="B61" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>40</v>
@@ -4225,16 +4235,14 @@
     </row>
     <row r="62" customHeight="1" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>40</v>
@@ -4246,149 +4254,149 @@
     </row>
     <row r="63" customHeight="1" spans="1:7">
       <c r="A63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G63" s="2"/>
     </row>
     <row r="64" customHeight="1" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="G64" s="2"/>
     </row>
     <row r="65" customHeight="1" spans="1:7">
       <c r="A65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E65" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G65" s="2"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G66" s="2"/>
     </row>
     <row r="67" customHeight="1" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G67" s="2"/>
     </row>
     <row r="68" customHeight="1" spans="1:7">
       <c r="A68" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G68" s="2"/>
     </row>
     <row r="69" customHeight="1" spans="1:7">
       <c r="A69" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G69" s="2"/>
     </row>
     <row r="70" customHeight="1" spans="1:7">
       <c r="A70" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
         <v>71</v>
       </c>
@@ -4396,115 +4404,115 @@
         <v>40</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G70" s="2"/>
     </row>
     <row r="71" customHeight="1" spans="1:7">
       <c r="A71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G71" s="2"/>
     </row>
     <row r="72" customHeight="1" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G72" s="2"/>
     </row>
     <row r="73" customHeight="1" spans="1:7">
       <c r="A73" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G73" s="2"/>
     </row>
     <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G74" s="2"/>
     </row>
     <row r="75" customHeight="1" spans="1:7">
       <c r="A75" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="D75" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="G75" s="2"/>
     </row>
     <row r="76" customHeight="1" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
@@ -4514,300 +4522,304 @@
         <v>40</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G76" s="2"/>
     </row>
     <row r="77" customHeight="1" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G77" s="2"/>
     </row>
     <row r="78" customHeight="1" spans="1:7">
       <c r="A78" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G78" s="2"/>
     </row>
     <row r="79" customHeight="1" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G79" s="2"/>
     </row>
     <row r="80" customHeight="1" spans="1:7">
       <c r="A80" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G80" s="2"/>
     </row>
     <row r="81" customHeight="1" spans="1:7">
       <c r="A81" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2">
-        <v>66767</v>
-      </c>
       <c r="D81" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G81" s="2"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
       <c r="A82" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2">
+        <v>66767</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G82" s="2"/>
     </row>
     <row r="83" customHeight="1" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G83" s="2"/>
     </row>
     <row r="84" customHeight="1" spans="1:7">
       <c r="A84" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G84" s="2"/>
     </row>
     <row r="85" customHeight="1" spans="1:7">
       <c r="A85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G85" s="2"/>
     </row>
     <row r="86" customHeight="1" spans="1:7">
       <c r="A86" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G86" s="2"/>
     </row>
     <row r="87" customHeight="1" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G87" s="2"/>
     </row>
     <row r="88" customHeight="1" spans="1:7">
       <c r="A88" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G88" s="2"/>
     </row>
     <row r="89" customHeight="1" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G89" s="2"/>
     </row>
     <row r="90" customHeight="1" spans="1:7">
       <c r="A90" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="G90" s="2"/>
     </row>
     <row r="91" customHeight="1" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B91" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E91" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G91" s="2"/>
     </row>
@@ -4818,390 +4830,384 @@
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G92" s="2"/>
     </row>
     <row r="93" customHeight="1" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>239</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G93" s="2"/>
     </row>
     <row r="94" customHeight="1" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G94" s="2"/>
     </row>
     <row r="95" customHeight="1" spans="1:7">
       <c r="A95" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G95" s="2"/>
     </row>
     <row r="96" customHeight="1" spans="1:7">
       <c r="A96" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" customHeight="1" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B97" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:7">
       <c r="A98" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:7">
       <c r="A99" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="D99" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:7">
       <c r="A100" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:7">
       <c r="A101" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:7">
       <c r="A102" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="D102" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:7">
       <c r="A103" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="E103" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:7">
       <c r="A104" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:7">
       <c r="A105" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="E105" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:7">
       <c r="A106" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:7">
       <c r="A107" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:7">
       <c r="A108" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B108" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="C108" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:7">
       <c r="A109" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="3" t="s">
@@ -5214,112 +5220,112 @@
         <v>40</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>292</v>
+        <v>248</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:7">
       <c r="A111" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="E111" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G111" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:7">
       <c r="A112" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="113" customFormat="1" customHeight="1" spans="1:7">
+    <row r="113" customHeight="1" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>297</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G113" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G113" s="2" t="s">
+    </row>
+    <row r="114" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A114" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:7">
-      <c r="A114" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:7">
       <c r="A115" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="E115" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>304</v>
@@ -5327,81 +5333,83 @@
     </row>
     <row r="116" customHeight="1" spans="1:7">
       <c r="A116" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="3" t="s">
         <v>305</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:7">
       <c r="A117" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="E117" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G117" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:7">
       <c r="A118" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="D118" s="2" t="s">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G118" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="119" customHeight="1" spans="1:7">
       <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G119" s="2"/>
     </row>
@@ -5410,141 +5418,141 @@
         <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G120" s="2"/>
     </row>
     <row r="121" customHeight="1" spans="1:7">
       <c r="A121" s="2" t="s">
-        <v>311</v>
+        <v>6</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>312</v>
+        <v>9</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G121" s="2"/>
     </row>
     <row r="122" customHeight="1" spans="1:7">
       <c r="A122" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>65</v>
+        <v>315</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G122" s="2"/>
     </row>
     <row r="123" customHeight="1" spans="1:7">
       <c r="A123" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G123" s="2"/>
     </row>
     <row r="124" customHeight="1" spans="1:7">
       <c r="A124" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B124" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G124" s="2"/>
     </row>
     <row r="125" customHeight="1" spans="1:7">
       <c r="A125" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
-        <v>317</v>
+        <v>54</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G125" s="2"/>
     </row>
     <row r="126" customHeight="1" spans="1:7">
       <c r="A126" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G126" s="2"/>
     </row>
     <row r="127" customHeight="1" spans="1:7">
       <c r="A127" s="2" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="2" t="s">
-        <v>320</v>
-      </c>
+      <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>321</v>
@@ -5553,11 +5561,11 @@
     </row>
     <row r="128" customHeight="1" spans="1:7">
       <c r="A128" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>139</v>
@@ -5566,199 +5574,197 @@
         <v>40</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G128" s="2"/>
     </row>
     <row r="129" customHeight="1" spans="1:7">
       <c r="A129" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G129" s="2"/>
     </row>
     <row r="130" customHeight="1" spans="1:7">
       <c r="A130" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>323</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G130" s="2"/>
     </row>
     <row r="131" customHeight="1" spans="1:7">
       <c r="A131" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>326</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="G131" s="2"/>
     </row>
     <row r="132" customHeight="1" spans="1:7">
       <c r="A132" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="D132" s="2" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F132" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:7">
       <c r="A133" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>331</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>333</v>
+        <v>47</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G133" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="134" customHeight="1" spans="1:7">
       <c r="A134" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B134" s="2">
-        <v>0.5</v>
+        <v>332</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
-        <v>71</v>
+        <v>334</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G134" s="2"/>
     </row>
     <row r="135" customHeight="1" spans="1:7">
       <c r="A135" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B135" s="2">
         <v>0.5</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>336</v>
-      </c>
+      <c r="C135" s="2"/>
       <c r="D135" s="2" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G135" s="2"/>
     </row>
     <row r="136" customHeight="1" spans="1:7">
       <c r="A136" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B136" s="2">
         <v>0.5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G136" s="2"/>
     </row>
     <row r="137" customHeight="1" spans="1:7">
       <c r="A137" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B137" s="2">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G137" s="2"/>
     </row>
     <row r="138" customHeight="1" spans="1:7">
       <c r="A138" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.38</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>340</v>
@@ -5767,78 +5773,78 @@
         <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G138" s="2"/>
     </row>
     <row r="139" customHeight="1" spans="1:7">
       <c r="A139" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B139" s="2">
-        <v>0.5</v>
+        <v>337</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G139" s="2"/>
     </row>
     <row r="140" customHeight="1" spans="1:7">
       <c r="A140" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="D140" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G140" s="2"/>
     </row>
     <row r="141" customHeight="1" spans="1:7">
       <c r="A141" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B141" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C141" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G141" s="2"/>
     </row>
     <row r="142" customHeight="1" spans="1:7">
       <c r="A142" s="2" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B142" s="2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>346</v>
@@ -5847,40 +5853,40 @@
         <v>46</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G142" s="2"/>
     </row>
     <row r="143" customHeight="1" spans="1:7">
       <c r="A143" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B143" s="2">
-        <v>0.38</v>
+        <v>0.7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G143" s="2"/>
     </row>
     <row r="144" customHeight="1" spans="1:7">
       <c r="A144" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0.38</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>349</v>
@@ -5889,244 +5895,246 @@
         <v>46</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G144" s="2"/>
     </row>
     <row r="145" customHeight="1" spans="1:7">
       <c r="A145" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="2">
-        <v>41801</v>
+      <c r="C145" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G145" s="2"/>
     </row>
     <row r="146" customHeight="1" spans="1:7">
       <c r="A146" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B146" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>351</v>
+        <v>332</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C146" s="2">
+        <v>41801</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G146" s="2"/>
     </row>
     <row r="147" customHeight="1" spans="1:7">
       <c r="A147" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C147" s="2">
-        <v>61108</v>
+        <v>332</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G147" s="2"/>
     </row>
     <row r="148" customHeight="1" spans="1:7">
       <c r="A148" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C148" s="2">
-        <v>61115</v>
+        <v>61108</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G148" s="2"/>
     </row>
     <row r="149" customHeight="1" spans="1:7">
       <c r="A149" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C149" s="2">
+        <v>61115</v>
+      </c>
       <c r="D149" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G149" s="2"/>
     </row>
     <row r="150" customHeight="1" spans="1:7">
       <c r="A150" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B150" s="2">
-        <v>0.5</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G150" s="2"/>
     </row>
     <row r="151" customHeight="1" spans="1:7">
       <c r="A151" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B151" s="2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G151" s="2"/>
     </row>
     <row r="152" customHeight="1" spans="1:7">
       <c r="A152" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.7</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G152" s="2"/>
     </row>
     <row r="153" customHeight="1" spans="1:7">
       <c r="A153" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B153" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G153" s="2"/>
     </row>
     <row r="154" customHeight="1" spans="1:7">
       <c r="A154" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B154" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>329</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="G154" s="2"/>
     </row>
     <row r="155" customHeight="1" spans="1:7">
       <c r="A155" s="2" t="s">
         <v>359</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>111</v>
+        <v>360</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G155" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="156" customHeight="1" spans="1:7">
       <c r="A156" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>362</v>
+        <v>111</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G156" s="2"/>
     </row>
@@ -6135,19 +6143,17 @@
         <v>363</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C157" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="C157" s="2"/>
       <c r="D157" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G157" s="2"/>
     </row>
@@ -6165,10 +6171,10 @@
         <v>46</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G158" s="2"/>
     </row>
@@ -6176,37 +6182,37 @@
       <c r="A159" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="B159" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="D159" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G159" s="2"/>
     </row>
     <row r="160" customHeight="1" spans="1:7">
       <c r="A160" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C160" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G160" s="2"/>
     </row>
@@ -6214,51 +6220,55 @@
       <c r="A161" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="B161" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="D161" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>329</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G161" s="2"/>
     </row>
     <row r="162" customHeight="1" spans="1:7">
       <c r="A162" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="2" t="s">
-        <v>372</v>
-      </c>
+      <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G162" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="163" customHeight="1" spans="1:7">
       <c r="A163" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>47</v>
+        <v>335</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>375</v>
@@ -6278,13 +6288,13 @@
         <v>47</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G164" s="2"/>
     </row>
     <row r="165" customHeight="1" spans="1:7">
       <c r="A165" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6295,13 +6305,13 @@
         <v>47</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G165" s="2"/>
     </row>
     <row r="166" customHeight="1" spans="1:7">
       <c r="A166" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6312,24 +6322,24 @@
         <v>47</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G166" s="2"/>
     </row>
     <row r="167" customHeight="1" spans="1:7">
       <c r="A167" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
-        <v>317</v>
+        <v>54</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G167" s="2"/>
     </row>
@@ -6337,111 +6347,109 @@
       <c r="A168" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>382</v>
-      </c>
+      <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
-        <v>65</v>
+        <v>319</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G168" s="2"/>
     </row>
     <row r="169" customHeight="1" spans="1:7">
       <c r="A169" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G169" s="2"/>
     </row>
     <row r="170" customHeight="1" spans="1:7">
       <c r="A170" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B170" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2" t="s">
-        <v>385</v>
+        <v>54</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G170" s="2"/>
     </row>
     <row r="171" customHeight="1" spans="1:7">
       <c r="A171" s="2" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2" t="s">
-        <v>219</v>
+        <v>387</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G171" s="2"/>
     </row>
     <row r="172" customHeight="1" spans="1:7">
       <c r="A172" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G172" s="2"/>
     </row>
     <row r="173" customHeight="1" spans="1:7">
       <c r="A173" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B173" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>389</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G173" s="2"/>
     </row>
     <row r="174" customHeight="1" spans="1:7">
       <c r="A174" s="2" t="s">
@@ -6450,159 +6458,159 @@
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G174" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="175" customHeight="1" spans="1:7">
       <c r="A175" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G175" s="2"/>
     </row>
     <row r="176" customHeight="1" spans="1:7">
       <c r="A176" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G176" s="2"/>
     </row>
     <row r="177" customHeight="1" spans="1:7">
       <c r="A177" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G177" s="2"/>
     </row>
     <row r="178" customHeight="1" spans="1:7">
       <c r="A178" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B178" s="2" t="s">
         <v>395</v>
       </c>
+      <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G178" s="2"/>
     </row>
     <row r="179" customHeight="1" spans="1:7">
       <c r="A179" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G179" s="2"/>
     </row>
     <row r="180" customHeight="1" spans="1:7">
       <c r="A180" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2" t="s">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G180" s="2"/>
     </row>
     <row r="181" customHeight="1" spans="1:7">
       <c r="A181" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G181" s="2"/>
     </row>
     <row r="182" customHeight="1" spans="1:7">
       <c r="A182" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G182" s="2"/>
     </row>
@@ -6610,111 +6618,115 @@
       <c r="A183" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B183" s="2"/>
+      <c r="B183" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G183" s="2"/>
     </row>
     <row r="184" customHeight="1" spans="1:7">
       <c r="A184" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B184" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>405</v>
-      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G184" s="2"/>
     </row>
     <row r="185" customHeight="1" spans="1:7">
       <c r="A185" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G185" s="2"/>
     </row>
     <row r="186" customHeight="1" spans="1:7">
       <c r="A186" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>408</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G186" s="2"/>
     </row>
     <row r="187" customHeight="1" spans="1:7">
       <c r="A187" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="C187" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="D187" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G187" s="2"/>
     </row>
     <row r="188" customHeight="1" spans="1:7">
       <c r="A188" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E188" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F188" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="G188" s="2"/>
     </row>
@@ -6727,27 +6739,23 @@
       <c r="D189" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="E189" s="2"/>
       <c r="F189" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G189" s="2"/>
     </row>
     <row r="190" customHeight="1" spans="1:7">
       <c r="A190" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B190" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G190" s="2"/>
     </row>
@@ -6760,11 +6768,13 @@
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E191" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G191" s="2"/>
     </row>
@@ -6777,134 +6787,132 @@
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>420</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E192" s="2"/>
       <c r="F192" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G192" s="2"/>
     </row>
     <row r="193" customHeight="1" spans="1:7">
       <c r="A193" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B193" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2" t="s">
-        <v>187</v>
+        <v>421</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G193" s="2"/>
     </row>
     <row r="194" customHeight="1" spans="1:7">
       <c r="A194" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E194" s="2"/>
       <c r="F194" s="2" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="G194" s="2"/>
     </row>
     <row r="195" customHeight="1" spans="1:7">
       <c r="A195" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="D195" s="2" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G195" s="2"/>
     </row>
     <row r="196" customHeight="1" spans="1:7">
       <c r="A196" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B196" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2" t="s">
+        <v>429</v>
+      </c>
       <c r="D196" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G196" s="2"/>
     </row>
     <row r="197" customHeight="1" spans="1:7">
       <c r="A197" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B197" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G197" s="2"/>
     </row>
     <row r="198" customHeight="1" spans="1:7">
       <c r="A198" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E198" s="2"/>
       <c r="F198" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G198" s="2"/>
     </row>
     <row r="199" customHeight="1" spans="1:7">
       <c r="A199" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="2" t="s">
-        <v>432</v>
-      </c>
+      <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G199" s="2"/>
     </row>
@@ -6912,10 +6920,10 @@
       <c r="A200" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="2"/>
+      <c r="C200" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C200" s="2"/>
       <c r="D200" s="2" t="s">
         <v>104</v>
       </c>
@@ -6923,32 +6931,32 @@
         <v>105</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G200" s="2"/>
     </row>
     <row r="201" customHeight="1" spans="1:7">
       <c r="A201" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2" t="s">
-        <v>437</v>
+        <v>104</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G201" s="2"/>
     </row>
     <row r="202" customHeight="1" spans="1:7">
       <c r="A202" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>438</v>
@@ -6961,13 +6969,13 @@
         <v>105</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G202" s="2"/>
     </row>
     <row r="203" customHeight="1" spans="1:7">
       <c r="A203" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>440</v>
@@ -6980,60 +6988,60 @@
         <v>105</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G203" s="2"/>
     </row>
     <row r="204" customHeight="1" spans="1:7">
       <c r="A204" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G204" s="2"/>
     </row>
     <row r="205" customHeight="1" spans="1:7">
       <c r="A205" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G205" s="2"/>
     </row>
     <row r="206" customHeight="1" spans="1:7">
       <c r="A206" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="2" t="s">
-        <v>445</v>
-      </c>
+      <c r="C206" s="2"/>
       <c r="D206" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>333</v>
+        <v>213</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G206" s="2"/>
     </row>
@@ -7041,185 +7049,185 @@
       <c r="A207" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>212</v>
+        <v>335</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G207" s="2"/>
     </row>
     <row r="208" customHeight="1" spans="1:7">
       <c r="A208" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="D208" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F208" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="G208" s="2"/>
     </row>
     <row r="209" customHeight="1" spans="1:7">
       <c r="A209" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B209" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="C209" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>454</v>
+        <v>46</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G209" s="2"/>
     </row>
     <row r="210" customHeight="1" spans="1:7">
       <c r="A210" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
       <c r="D210" s="2" t="s">
         <v>456</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>457</v>
+        <v>213</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G210" s="2"/>
     </row>
     <row r="211" customHeight="1" spans="1:7">
       <c r="A211" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>459</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2" t="s">
-        <v>46</v>
+        <v>458</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G211" s="2"/>
     </row>
     <row r="212" customHeight="1" spans="1:7">
       <c r="A212" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>461</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>47</v>
+        <v>462</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G212" s="2"/>
     </row>
     <row r="213" customHeight="1" spans="1:7">
       <c r="A213" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>463</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="G213" s="2"/>
     </row>
     <row r="214" customHeight="1" spans="1:7">
       <c r="A214" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>465</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G214" s="2"/>
     </row>
     <row r="215" customHeight="1" spans="1:7">
       <c r="A215" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>467</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G215" s="2"/>
     </row>
     <row r="216" customHeight="1" spans="1:7">
       <c r="A216" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>469</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>105</v>
@@ -7231,83 +7239,83 @@
     </row>
     <row r="217" customHeight="1" spans="1:7">
       <c r="A217" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G217" s="2"/>
     </row>
     <row r="218" customHeight="1" spans="1:7">
       <c r="A218" s="2" t="s">
-        <v>244</v>
+        <v>473</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C218" s="2" t="s">
         <v>474</v>
       </c>
+      <c r="C218" s="2"/>
       <c r="D218" s="2" t="s">
-        <v>475</v>
+        <v>139</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="G218" s="2"/>
     </row>
     <row r="219" customHeight="1" spans="1:7">
       <c r="A219" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G219" s="2"/>
     </row>
     <row r="220" customHeight="1" spans="1:7">
       <c r="A220" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2" t="s">
+      <c r="D220" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E220" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G220" s="2"/>
     </row>
@@ -7316,34 +7324,34 @@
         <v>482</v>
       </c>
       <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
+      <c r="C221" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="D221" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G221" s="2"/>
     </row>
     <row r="222" customHeight="1" spans="1:7">
       <c r="A222" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B222" s="2" t="s">
         <v>484</v>
       </c>
+      <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G222" s="2"/>
     </row>
@@ -7351,142 +7359,146 @@
       <c r="A223" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B223" s="2"/>
+      <c r="B223" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G223" s="2"/>
     </row>
     <row r="224" customHeight="1" spans="1:7">
       <c r="A224" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G224" s="2"/>
     </row>
     <row r="225" customHeight="1" spans="1:7">
       <c r="A225" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B225" s="2" t="s">
         <v>488</v>
       </c>
+      <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2" t="s">
-        <v>419</v>
+        <v>139</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G225" s="2"/>
     </row>
     <row r="226" customHeight="1" spans="1:7">
       <c r="A226" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2" t="s">
-        <v>187</v>
+        <v>421</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G226" s="2"/>
     </row>
     <row r="227" customHeight="1" spans="1:7">
       <c r="A227" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B227" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G227" s="2"/>
     </row>
     <row r="228" customHeight="1" spans="1:7">
-      <c r="A228" s="2"/>
+      <c r="A228" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
+      <c r="D228" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="G228" s="2"/>
     </row>
     <row r="229" customHeight="1" spans="1:7">
-      <c r="A229" s="2" t="s">
-        <v>492</v>
-      </c>
+      <c r="A229" s="2"/>
       <c r="B229" s="2"/>
-      <c r="C229" s="2" t="s">
-        <v>493</v>
-      </c>
+      <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="F229" s="2"/>
       <c r="G229" s="2"/>
     </row>
     <row r="230" customHeight="1" spans="1:7">
       <c r="A230" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2" t="s">
-        <v>470</v>
+        <v>321</v>
       </c>
       <c r="G230" s="2"/>
     </row>
     <row r="231" customHeight="1" spans="1:7">
       <c r="A231" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B231" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
-      <c r="E231" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E231" s="2"/>
       <c r="F231" s="2" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="G231" s="2"/>
     </row>
@@ -7501,13 +7513,13 @@
         <v>47</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G232" s="2"/>
     </row>
     <row r="233" customHeight="1" spans="1:7">
       <c r="A233" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7516,13 +7528,13 @@
         <v>47</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" customHeight="1" spans="1:7">
       <c r="A234" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7531,13 +7543,13 @@
         <v>47</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G234" s="2"/>
     </row>
     <row r="235" customHeight="1" spans="1:7">
       <c r="A235" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7546,13 +7558,13 @@
         <v>47</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G235" s="2"/>
     </row>
     <row r="236" customHeight="1" spans="1:7">
       <c r="A236" s="2" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7561,7 +7573,7 @@
         <v>47</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G236" s="2"/>
     </row>
@@ -7576,13 +7588,13 @@
         <v>47</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G237" s="2"/>
     </row>
     <row r="238" customHeight="1" spans="1:7">
       <c r="A238" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7591,41 +7603,41 @@
         <v>47</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G238" s="2"/>
     </row>
     <row r="239" customHeight="1" spans="1:7">
       <c r="A239" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
-      <c r="D239" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>503</v>
+      </c>
       <c r="G239" s="2"/>
     </row>
     <row r="240" customHeight="1" spans="1:7">
       <c r="A240" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>503</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="B240" s="2"/>
       <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
+      <c r="D240" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E240" s="2"/>
-      <c r="F240" s="2" t="s">
-        <v>504</v>
-      </c>
+      <c r="F240" s="2"/>
       <c r="G240" s="2"/>
     </row>
     <row r="241" customHeight="1" spans="1:7">
       <c r="A241" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>505</v>
@@ -7634,69 +7646,69 @@
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G241" s="2"/>
     </row>
     <row r="242" customHeight="1" spans="1:7">
       <c r="A242" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G242" s="2"/>
     </row>
     <row r="243" customHeight="1" spans="1:7">
       <c r="A243" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G243" s="2"/>
     </row>
     <row r="244" customHeight="1" spans="1:7">
       <c r="A244" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2" t="s">
-        <v>360</v>
+        <v>506</v>
       </c>
       <c r="G244" s="2"/>
     </row>
     <row r="245" customHeight="1" spans="1:7">
       <c r="A245" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
       <c r="G245" s="2"/>
     </row>
@@ -7705,51 +7717,51 @@
         <v>511</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="2"/>
+      <c r="D246" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D246" s="2"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2" t="s">
-        <v>373</v>
+        <v>512</v>
       </c>
       <c r="G246" s="2"/>
     </row>
     <row r="247" customHeight="1" spans="1:7">
       <c r="A247" s="2" t="s">
-        <v>169</v>
+        <v>513</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" s="2" t="s">
-        <v>463</v>
+        <v>85</v>
       </c>
       <c r="D247" s="2"/>
-      <c r="E247" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="E247" s="2"/>
       <c r="F247" s="2" t="s">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="G247" s="2"/>
     </row>
     <row r="248" customHeight="1" spans="1:7">
       <c r="A248" s="2" t="s">
-        <v>513</v>
+        <v>171</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E248" s="2"/>
+      <c r="C248" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F248" s="2" t="s">
-        <v>234</v>
+        <v>514</v>
       </c>
       <c r="G248" s="2"/>
     </row>
     <row r="249" customHeight="1" spans="1:7">
       <c r="A249" s="2" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7758,13 +7770,13 @@
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="G249" s="2"/>
     </row>
     <row r="250" customHeight="1" spans="1:7">
       <c r="A250" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7773,30 +7785,28 @@
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="G250" s="2"/>
     </row>
     <row r="251" customHeight="1" spans="1:7">
       <c r="A251" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B251" s="2" t="s">
         <v>516</v>
       </c>
+      <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2" t="s">
-        <v>517</v>
+        <v>162</v>
       </c>
       <c r="G251" s="2"/>
     </row>
     <row r="252" customHeight="1" spans="1:7">
       <c r="A252" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>518</v>
@@ -7807,54 +7817,58 @@
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G252" s="2"/>
     </row>
     <row r="253" customHeight="1" spans="1:7">
       <c r="A253" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B253" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
+      <c r="D253" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2" t="s">
-        <v>237</v>
+        <v>519</v>
       </c>
       <c r="G253" s="2"/>
     </row>
     <row r="254" customHeight="1" spans="1:7">
-      <c r="A254" s="2"/>
+      <c r="A254" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
+      <c r="F254" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="G254" s="2"/>
     </row>
     <row r="255" customHeight="1" spans="1:7">
-      <c r="A255" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
     </row>
     <row r="256" customHeight="1" spans="1:7">
-      <c r="A256" s="2"/>
+      <c r="A256" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="B256" s="2" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -7863,20 +7877,20 @@
     </row>
     <row r="257" customHeight="1" spans="1:7">
       <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
+      <c r="B257" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
     </row>
     <row r="258" customHeight="1" spans="1:7">
-      <c r="A258" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>463</v>
-      </c>
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -7884,9 +7898,11 @@
       <c r="G258" s="2"/>
     </row>
     <row r="259" customHeight="1" spans="1:7">
-      <c r="A259" s="2"/>
+      <c r="A259" s="2" t="s">
+        <v>524</v>
+      </c>
       <c r="B259" s="2" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -7896,7 +7912,9 @@
     </row>
     <row r="260" customHeight="1" spans="1:7">
       <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
+      <c r="B260" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -7904,93 +7922,87 @@
       <c r="G260" s="2"/>
     </row>
     <row r="261" customHeight="1" spans="1:7">
-      <c r="A261" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>389</v>
-      </c>
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
     </row>
     <row r="262" customHeight="1" spans="1:7">
       <c r="A262" s="2" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>525</v>
+        <v>391</v>
       </c>
     </row>
     <row r="263" customHeight="1" spans="1:7">
       <c r="A263" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B263" s="2"/>
+      <c r="B263" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C263" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="264" customHeight="1" spans="1:7">
-      <c r="A264" s="2"/>
+      <c r="A264" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
+      <c r="C264" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
     </row>
     <row r="265" customHeight="1" spans="1:7">
-      <c r="A265" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>528</v>
-      </c>
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
     </row>
     <row r="266" customHeight="1" spans="1:7">
-      <c r="A266" s="2"/>
+      <c r="A266" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="B266" s="2" t="s">
         <v>529</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>530</v>
@@ -8005,60 +8017,66 @@
         <v>531</v>
       </c>
       <c r="C267" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D267" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D267" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
     </row>
     <row r="268" customHeight="1" spans="1:7">
       <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
+      <c r="B268" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
     </row>
     <row r="269" customHeight="1" spans="1:7">
       <c r="A269" s="2"/>
-      <c r="B269" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>534</v>
-      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
     </row>
     <row r="270" customHeight="1" spans="1:7">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>420</v>
-      </c>
+      <c r="C270" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
     </row>
     <row r="271" customHeight="1" spans="1:7">
-      <c r="A271" s="2"/>
+      <c r="A271" s="2" t="s">
+        <v>537</v>
+      </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
+      <c r="D271" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
     </row>
@@ -8072,27 +8090,27 @@
       <c r="G272" s="2"/>
     </row>
     <row r="273" customHeight="1" spans="1:7">
-      <c r="A273" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
     </row>
     <row r="274" customHeight="1" spans="1:7">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
+      <c r="A274" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
@@ -8116,28 +8134,24 @@
       <c r="G276" s="2"/>
     </row>
     <row r="277" customHeight="1" spans="1:7">
-      <c r="A277" s="2" t="s">
-        <v>539</v>
-      </c>
+      <c r="A277" s="2"/>
       <c r="B277" s="2"/>
-      <c r="C277" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
     </row>
     <row r="278" customHeight="1" spans="1:7">
-      <c r="A278" s="2"/>
+      <c r="A278" s="2" t="s">
+        <v>541</v>
+      </c>
       <c r="B278" s="2"/>
       <c r="C278" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>542</v>
+        <v>168</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
@@ -8185,84 +8199,70 @@
     <row r="282" customHeight="1" spans="1:7">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
+      <c r="C282" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="E282" s="2"/>
-      <c r="F282" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>550</v>
-      </c>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
     </row>
     <row r="283" customHeight="1" spans="1:7">
-      <c r="A283" s="2" t="s">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D283" s="2" t="s">
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+    </row>
+    <row r="284" customHeight="1" spans="1:7">
+      <c r="A284" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E283" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F283" s="2" t="s">
+      <c r="B284" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G283" s="2"/>
-    </row>
-    <row r="284" customHeight="1" spans="1:7">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D284" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
       <c r="G284" s="2"/>
     </row>
     <row r="285" customHeight="1" spans="1:7">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G285" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D285" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
     </row>
     <row r="286" customHeight="1" spans="1:7">
       <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
+      <c r="B286" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D286" s="2"/>
-      <c r="E286" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
       <c r="G286" s="2"/>
     </row>
     <row r="287" customHeight="1" spans="1:7">
@@ -8275,7 +8275,7 @@
       <c r="G287" s="2"/>
     </row>
     <row r="288" customHeight="1" spans="1:7">
-      <c r="A288" s="4"/>
+      <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -8284,7 +8284,7 @@
       <c r="G288" s="2"/>
     </row>
     <row r="289" customHeight="1" spans="1:7">
-      <c r="A289" s="4"/>
+      <c r="A289" s="3"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -8293,7 +8293,7 @@
       <c r="G289" s="2"/>
     </row>
     <row r="290" customHeight="1" spans="1:7">
-      <c r="A290" s="2"/>
+      <c r="A290" s="3"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -8314,15 +8314,23 @@
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
+      <c r="D292" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
     </row>
     <row r="293" customHeight="1" spans="1:7">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
+      <c r="A293" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
@@ -8330,8 +8338,12 @@
     </row>
     <row r="294" customHeight="1" spans="1:7">
       <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
+      <c r="B294" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
@@ -8339,17 +8351,27 @@
     </row>
     <row r="295" customHeight="1" spans="1:7">
       <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
+      <c r="B295" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
     </row>
     <row r="296" customHeight="1" spans="1:7">
       <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
+      <c r="B296" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
@@ -8392,58 +8414,116 @@
       <c r="G300" s="2"/>
     </row>
     <row r="301" customHeight="1" spans="1:7">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
+      <c r="A301" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="G301" s="2"/>
     </row>
     <row r="302" customHeight="1" spans="1:7">
       <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
+      <c r="B302" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
     </row>
     <row r="303" customHeight="1" spans="1:7">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
+      <c r="A303" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
     </row>
     <row r="304" customHeight="1" spans="1:7">
       <c r="A304" s="2"/>
-      <c r="B304" s="2"/>
+      <c r="B304" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-      <c r="E304" s="2"/>
+      <c r="D304" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
     </row>
     <row r="305" customHeight="1" spans="1:7">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2"/>
-      <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
-      <c r="E305" s="2"/>
-      <c r="F305" s="2"/>
-      <c r="G305" s="2"/>
+      <c r="A305" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="306" customHeight="1" spans="1:7">
       <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
-      <c r="G306" s="2"/>
+      <c r="B306" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="307" customHeight="1" spans="1:7">
       <c r="A307" s="2"/>
@@ -8489,6 +8569,15 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
+    </row>
+    <row r="312" customHeight="1" spans="1:7">
+      <c r="A312" s="2"/>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8500,14 +8589,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>20190709</v>
+      </c>
+      <c r="B1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/价格表x.xlsx
+++ b/价格表x.xlsx
@@ -1879,9 +1879,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1903,73 +1903,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1996,11 +1929,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2022,7 +1985,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2037,7 +2037,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2070,7 +2070,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2094,25 +2118,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,6 +2196,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2155,54 +2227,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2227,30 +2251,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2279,36 +2279,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2333,15 +2303,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2357,11 +2318,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2376,6 +2343,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2384,10 +2384,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2396,133 +2396,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3183,8 +3183,8 @@
   <sheetPr/>
   <dimension ref="A1:I332"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="11" customHeight="1"/>
